--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,17 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahom\Documents\GitHub\GPK-pytorch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA1F767-F5EC-441E-BD14-F907AB4E94D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEB8A8A-B364-495E-8F41-BC77309DF1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -399,7 +409,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H2">
         <v>0.9</v>
@@ -470,9 +480,6 @@
       <c r="D3">
         <v>0.01</v>
       </c>
-      <c r="G3">
-        <v>1500</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
@@ -480,9 +487,6 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
